--- a/bets parleys.xlsx
+++ b/bets parleys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\OneDrive\Documentos\Prueba Chat GPT\Football v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494FF925-6C47-49C8-9111-2A8647CD20B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E3DE6-4A29-4816-9A6D-DD4FA7327BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F44A1CD6-F3F0-4C42-BBA3-6C18DA2C5EED}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>a</t>
   </si>
@@ -125,105 +125,42 @@
     <t>Sep 17, 2023</t>
   </si>
   <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Casa Pia</t>
-  </si>
-  <si>
     <t>Visitor</t>
   </si>
   <si>
     <t>England</t>
   </si>
   <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
     <t>Sep 16, 2023</t>
   </si>
   <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>FC Augsburg</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Luton Town</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
     <t>Genoa</t>
   </si>
   <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Sporting CP</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Excelsior</t>
-  </si>
-  <si>
     <t>Almere City</t>
   </si>
   <si>
     <t>Darmstadt</t>
   </si>
   <si>
-    <t>Monchengladbach</t>
-  </si>
-  <si>
-    <t>Wolverhampton</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>FSV Mainz</t>
-  </si>
-  <si>
     <t>Stuttgart</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Vizela</t>
   </si>
   <si>
@@ -303,6 +240,81 @@
   </si>
   <si>
     <t xml:space="preserve">27 nov - </t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Sep 23, 2023</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>Sep 22, 2023</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sep 24, 2023</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Inter Milan</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>A. San Luis</t>
+  </si>
+  <si>
+    <t>Mazatlan</t>
+  </si>
+  <si>
+    <t>Sep 20, 2023</t>
+  </si>
+  <si>
+    <t>Queretaro</t>
+  </si>
+  <si>
+    <t>CF America</t>
+  </si>
+  <si>
+    <t>Club Leon</t>
+  </si>
+  <si>
+    <t>Tijuana</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>mexico</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -735,7 +747,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,25 +763,25 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>35.93</v>
       </c>
       <c r="D2" s="3">
         <f>+IFERROR((C2-B2)/B2,"")</f>
@@ -778,7 +790,7 @@
       <c r="H2" s="2"/>
       <c r="J2" s="10">
         <f>+Sheet2!I2</f>
-        <v>0.85699999999999998</v>
+        <v>0.874</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -800,12 +812,12 @@
       </c>
       <c r="Q2" t="str">
         <f>IF(VLOOKUP(K2,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K2,Sheet2!A:G,7,FALSE),VLOOKUP(K2,Sheet2!A:D,4,FALSE))</f>
-        <v>Casa Pia</v>
+        <v>Guadalajara</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <f>+C2</f>
@@ -818,7 +830,7 @@
       <c r="H3" s="2"/>
       <c r="J3" s="10">
         <f>+Sheet2!I4</f>
-        <v>0.82299999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -840,12 +852,12 @@
       </c>
       <c r="Q3" t="str">
         <f>IF(VLOOKUP(K3,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K3,Sheet2!A:G,7,FALSE),VLOOKUP(K3,Sheet2!A:D,4,FALSE))</f>
-        <v>Chelsea</v>
+        <v>Stuttgart</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B12" si="1">+C3</f>
@@ -858,7 +870,7 @@
       <c r="H4" s="2"/>
       <c r="J4" s="10">
         <f>+Sheet2!I6</f>
-        <v>0.82199999999999995</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -880,12 +892,12 @@
       </c>
       <c r="Q4" t="str">
         <f>IF(VLOOKUP(K4,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K4,Sheet2!A:G,7,FALSE),VLOOKUP(K4,Sheet2!A:D,4,FALSE))</f>
-        <v>RB Leipzig</v>
+        <v>Bayern Munich</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
@@ -898,7 +910,7 @@
       <c r="H5" s="2"/>
       <c r="J5" s="10">
         <f>+Sheet2!I8</f>
-        <v>0.82</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -920,12 +932,12 @@
       </c>
       <c r="Q5" t="str">
         <f>IF(VLOOKUP(K5,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K5,Sheet2!A:G,7,FALSE),VLOOKUP(K5,Sheet2!A:D,4,FALSE))</f>
-        <v>Fulham</v>
+        <v>PSV Eindhoven</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -938,7 +950,7 @@
       <c r="H6" s="2"/>
       <c r="J6" s="10">
         <f>+Sheet2!I10</f>
-        <v>0.79500000000000004</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -960,12 +972,12 @@
       </c>
       <c r="Q6" t="str">
         <f>IF(VLOOKUP(K6,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K6,Sheet2!A:G,7,FALSE),VLOOKUP(K6,Sheet2!A:D,4,FALSE))</f>
-        <v>Napoli</v>
+        <v>Inter Milan</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
@@ -978,7 +990,7 @@
       <c r="H7" s="2"/>
       <c r="J7" s="10">
         <f>+Sheet2!I12</f>
-        <v>0.79200000000000004</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1000,12 +1012,12 @@
       </c>
       <c r="Q7" t="str">
         <f>IF(VLOOKUP(K7,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K7,Sheet2!A:G,7,FALSE),VLOOKUP(K7,Sheet2!A:D,4,FALSE))</f>
-        <v>Sporting CP</v>
+        <v>Lecce</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
@@ -1018,7 +1030,7 @@
       <c r="H8" s="2"/>
       <c r="J8" s="10">
         <f>+Sheet2!I14</f>
-        <v>0.78100000000000003</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1040,12 +1052,12 @@
       </c>
       <c r="Q8" t="str">
         <f>IF(VLOOKUP(K8,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K8,Sheet2!A:G,7,FALSE),VLOOKUP(K8,Sheet2!A:D,4,FALSE))</f>
-        <v>Excelsior</v>
+        <v>Manchester City</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -1058,7 +1070,7 @@
       <c r="H9" s="2"/>
       <c r="J9" s="10">
         <f>+Sheet2!I16</f>
-        <v>0.78</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1080,12 +1092,12 @@
       </c>
       <c r="Q9" t="str">
         <f>IF(VLOOKUP(K9,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K9,Sheet2!A:G,7,FALSE),VLOOKUP(K9,Sheet2!A:D,4,FALSE))</f>
-        <v>Monchengladbach</v>
+        <v>A. San Luis</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
@@ -1098,7 +1110,7 @@
       <c r="H10" s="2"/>
       <c r="J10" s="10">
         <f>+Sheet2!I18</f>
-        <v>0.76900000000000002</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -1120,12 +1132,12 @@
       </c>
       <c r="Q10" t="str">
         <f>IF(VLOOKUP(K10,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K10,Sheet2!A:G,7,FALSE),VLOOKUP(K10,Sheet2!A:D,4,FALSE))</f>
-        <v>Liverpool</v>
+        <v>CF America</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
@@ -1138,7 +1150,7 @@
       <c r="H11" s="2"/>
       <c r="J11" s="10">
         <f>+Sheet2!I20</f>
-        <v>0.748</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1160,12 +1172,12 @@
       </c>
       <c r="Q11" t="str">
         <f>IF(VLOOKUP(K11,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K11,Sheet2!A:G,7,FALSE),VLOOKUP(K11,Sheet2!A:D,4,FALSE))</f>
-        <v>Tottenham</v>
+        <v>Club Leon</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -1178,7 +1190,7 @@
       <c r="H12" s="2"/>
       <c r="J12" s="10">
         <f>+Sheet2!I22</f>
-        <v>0.747</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1200,14 +1212,14 @@
       </c>
       <c r="Q12" t="str">
         <f>IF(VLOOKUP(K12,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K12,Sheet2!A:G,7,FALSE),VLOOKUP(K12,Sheet2!A:D,4,FALSE))</f>
-        <v>FSV Mainz</v>
+        <v>Leverkusen</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="J13" s="10">
         <f>+Sheet2!I24</f>
-        <v>0.74399999999999999</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -1229,7 +1241,7 @@
       </c>
       <c r="Q13" t="str">
         <f>IF(VLOOKUP(K13,Sheet2!A:H,8,FALSE)="Visitor",VLOOKUP(K13,Sheet2!A:G,7,FALSE),VLOOKUP(K13,Sheet2!A:D,4,FALSE))</f>
-        <v>Rennes</v>
+        <v>Dortmund</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1250,23 +1262,23 @@
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F18" s="13">
         <f>+$B$2*J18</f>
-        <v>2.6250262292788693</v>
+        <v>2.0989783526331243</v>
       </c>
       <c r="G18" t="str">
         <f>+IFERROR(VLOOKUP(L18,$K$2:$Q$13,7,FALSE),"")</f>
-        <v>Casa Pia</v>
+        <v>Guadalajara</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" ref="H18:I18" si="2">+IFERROR(VLOOKUP(M18,$K$2:$Q$13,7,FALSE),"")</f>
-        <v>Chelsea</v>
+        <v>Stuttgart</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>RB Leipzig</v>
+        <v>Bayern Munich</v>
       </c>
       <c r="J18" s="11">
         <f>+SUM(R18:T18)</f>
-        <v>5.8333916206197094E-2</v>
+        <v>5.8418545856752692E-2</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
@@ -1282,49 +1294,49 @@
       </c>
       <c r="O18">
         <f>+IFERROR(INDEX($J$2:$J$13,MATCH(L18,$K$2:$K$13,0)),)</f>
-        <v>0.85699999999999998</v>
+        <v>0.874</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:Q18" si="3">+IFERROR(INDEX($J$2:$J$13,MATCH(M18,$K$2:$K$13,0)),)</f>
-        <v>0.82299999999999995</v>
+        <f>+IFERROR(INDEX($J$2:$J$13,MATCH(M18,$K$2:$K$13,0)),)</f>
+        <v>0.86</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
-        <v>0.82199999999999995</v>
+        <f>+IFERROR(INDEX($J$2:$J$13,MATCH(N18,$K$2:$K$13,0)),)</f>
+        <v>0.85399999999999998</v>
       </c>
       <c r="R18">
         <f>1*O18/SUM($O$18:$Q$41)</f>
-        <v>1.998088177006831E-2</v>
+        <v>1.9728674296291288E-2</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:T18" si="4">1*P18/SUM($O$18:$Q$41)</f>
-        <v>1.9188174675339811E-2</v>
+        <f t="shared" ref="S18:T18" si="3">1*P18/SUM($O$18:$Q$41)</f>
+        <v>1.9412654341888453E-2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="4"/>
-        <v>1.9164859760788973E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.9277217218572951E-2</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F19" s="13">
-        <f t="shared" ref="F19:F41" si="5">+$B$2*J19</f>
-        <v>2.5253549695740363</v>
+        <f t="shared" ref="F19:F41" si="4">+$B$2*J19</f>
+        <v>2.037339111983929</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G41" si="6">+IFERROR(VLOOKUP(L19,$K$2:$Q$13,7,FALSE),"")</f>
-        <v>Fulham</v>
+        <f t="shared" ref="G19:G41" si="5">+IFERROR(VLOOKUP(L19,$K$2:$Q$13,7,FALSE),"")</f>
+        <v>PSV Eindhoven</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ref="H19:H41" si="7">+IFERROR(VLOOKUP(M19,$K$2:$Q$13,7,FALSE),"")</f>
-        <v>Napoli</v>
+        <f t="shared" ref="H19:H41" si="6">+IFERROR(VLOOKUP(M19,$K$2:$Q$13,7,FALSE),"")</f>
+        <v>Inter Milan</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" ref="I19:I41" si="8">+IFERROR(VLOOKUP(N19,$K$2:$Q$13,7,FALSE),"")</f>
-        <v>Sporting CP</v>
+        <f t="shared" ref="I19:I41" si="7">+IFERROR(VLOOKUP(N19,$K$2:$Q$13,7,FALSE),"")</f>
+        <v>Lecce</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" ref="J19:J41" si="9">+SUM(R19:T19)</f>
-        <v>5.611899932386747E-2</v>
+        <f t="shared" ref="J19:J41" si="8">+SUM(R19:T19)</f>
+        <v>5.6703008961423024E-2</v>
       </c>
       <c r="K19" t="s">
         <v>7</v>
@@ -1339,50 +1351,50 @@
         <v>6</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O18:O41" si="10">+IFERROR(INDEX($J$2:$J$13,MATCH(L19,$K$2:$K$13,0)),)</f>
-        <v>0.82</v>
+        <f t="shared" ref="O18:O41" si="9">+IFERROR(INDEX($J$2:$J$13,MATCH(L19,$K$2:$K$13,0)),)</f>
+        <v>0.83899999999999997</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P41" si="11">+IFERROR(INDEX($J$2:$J$13,MATCH(M19,$K$2:$K$13,0)),)</f>
-        <v>0.79500000000000004</v>
+        <f t="shared" ref="P19:P41" si="10">+IFERROR(INDEX($J$2:$J$13,MATCH(M19,$K$2:$K$13,0)),)</f>
+        <v>0.83699999999999997</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q41" si="12">+IFERROR(INDEX($J$2:$J$13,MATCH(N19,$K$2:$K$13,0)),)</f>
-        <v>0.79200000000000004</v>
+        <f t="shared" ref="Q19:Q41" si="11">+IFERROR(INDEX($J$2:$J$13,MATCH(N19,$K$2:$K$13,0)),)</f>
+        <v>0.83599999999999997</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:R41" si="13">1*O19/SUM($O$18:$Q$41)</f>
-        <v>1.9118229931687297E-2</v>
+        <f t="shared" ref="R19:R41" si="12">1*O19/SUM($O$18:$Q$41)</f>
+        <v>1.89386244102842E-2</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:S41" si="14">1*P19/SUM($O$18:$Q$41)</f>
-        <v>1.8535357067916345E-2</v>
+        <f t="shared" ref="S19:S41" si="13">1*P19/SUM($O$18:$Q$41)</f>
+        <v>1.8893478702512366E-2</v>
       </c>
       <c r="T19">
-        <f t="shared" ref="T19:T41" si="15">1*Q19/SUM($O$18:$Q$41)</f>
-        <v>1.8465412324263832E-2</v>
+        <f t="shared" ref="T19:T41" si="14">1*Q19/SUM($O$18:$Q$41)</f>
+        <v>1.8870905848626451E-2</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F20" s="13">
+        <f t="shared" si="4"/>
+        <v>1.3163222049163679</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="5"/>
-        <v>1.6377561726236269</v>
-      </c>
-      <c r="G20" t="str">
+        <v>Manchester City</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="6"/>
-        <v>Excelsior</v>
-      </c>
-      <c r="H20" t="str">
+        <v>A. San Luis</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="7"/>
-        <v>Monchengladbach</v>
-      </c>
-      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="9"/>
-        <v>3.6394581613858376E-2</v>
+        <v>3.6635741856842971E-2</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
@@ -1394,50 +1406,50 @@
         <v>8</v>
       </c>
       <c r="O20">
+        <f t="shared" si="9"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="10"/>
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="P20">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="11"/>
-        <v>0.78</v>
-      </c>
-      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R20">
+        <v>1.8396875917022194E-2</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="13"/>
-        <v>1.8208948264204609E-2</v>
-      </c>
-      <c r="S20">
+        <v>1.823886593982078E-2</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="14"/>
-        <v>1.8185633349653771E-2</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F21" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2700927744294719</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="5"/>
-        <v>1.5915926418129673</v>
-      </c>
-      <c r="G21" t="str">
+        <v>CF America</v>
+      </c>
+      <c r="H21" t="str">
         <f t="shared" si="6"/>
-        <v>Liverpool</v>
-      </c>
-      <c r="H21" t="str">
+        <v>Club Leon</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="7"/>
-        <v>Tottenham</v>
-      </c>
-      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="9"/>
-        <v>3.5368725373621498E-2</v>
+        <v>3.5349089185345725E-2</v>
       </c>
       <c r="K21" t="s">
         <v>9</v>
@@ -1449,50 +1461,50 @@
         <v>10</v>
       </c>
       <c r="O21">
+        <f t="shared" si="9"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="10"/>
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="P21">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="11"/>
-        <v>0.748</v>
-      </c>
-      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
+        <v>1.7764836008216527E-2</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="13"/>
-        <v>1.7929169289594551E-2</v>
-      </c>
-      <c r="S21">
+        <v>1.7584253177129194E-2</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="14"/>
-        <v>1.743955608402695E-2</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F22" s="13">
+        <f t="shared" si="4"/>
+        <v>0.59854946840929124</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="5"/>
-        <v>0.78373085262642506</v>
-      </c>
-      <c r="G22" t="str">
+        <v>Leverkusen</v>
+      </c>
+      <c r="H22" t="str">
         <f t="shared" si="6"/>
-        <v>FSV Mainz</v>
-      </c>
-      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J22" s="11">
-        <f t="shared" si="9"/>
-        <v>1.7416241169476113E-2</v>
+        <v>1.6658766167806604E-2</v>
       </c>
       <c r="K22" t="s">
         <v>10</v>
@@ -1501,50 +1513,50 @@
         <v>11</v>
       </c>
       <c r="O22">
+        <f t="shared" si="9"/>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="10"/>
-        <v>0.747</v>
-      </c>
-      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
+        <v>1.6658766167806604E-2</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="13"/>
-        <v>1.7416241169476113E-2</v>
-      </c>
-      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F23" s="13">
+        <f t="shared" si="4"/>
+        <v>0.59692738312904925</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="5"/>
-        <v>0.7805833391620618</v>
-      </c>
-      <c r="G23" t="str">
+        <v>Dortmund</v>
+      </c>
+      <c r="H23" t="str">
         <f t="shared" si="6"/>
-        <v>Rennes</v>
-      </c>
-      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J23" s="11">
-        <f t="shared" si="9"/>
-        <v>1.7346296425823596E-2</v>
+        <v>1.661362046003477E-2</v>
       </c>
       <c r="K23" t="s">
         <v>11</v>
@@ -1553,50 +1565,50 @@
         <v>12</v>
       </c>
       <c r="O23">
+        <f t="shared" si="9"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="10"/>
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R23">
+        <v>1.661362046003477E-2</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="13"/>
-        <v>1.7346296425823596E-2</v>
-      </c>
-      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F24" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0803243719103413</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="5"/>
-        <v>2.5956494369448131</v>
-      </c>
-      <c r="G24" t="str">
+        <v>Guadalajara</v>
+      </c>
+      <c r="H24" t="str">
         <f t="shared" si="6"/>
-        <v>Casa Pia</v>
-      </c>
-      <c r="H24" t="str">
+        <v>Bayern Munich</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="7"/>
-        <v>RB Leipzig</v>
-      </c>
-      <c r="I24" t="str">
+        <v>Inter Milan</v>
+      </c>
+      <c r="J24" s="11">
         <f t="shared" si="8"/>
-        <v>Napoli</v>
-      </c>
-      <c r="J24" s="11">
-        <f t="shared" si="9"/>
-        <v>5.7681098598773628E-2</v>
+        <v>5.7899370217376601E-2</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -1611,50 +1623,50 @@
         <v>5</v>
       </c>
       <c r="O24">
+        <f t="shared" si="9"/>
+        <v>0.874</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="10"/>
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="P24">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="11"/>
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="Q24">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="12"/>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="R24">
+        <v>1.9728674296291288E-2</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="13"/>
-        <v>1.998088177006831E-2</v>
-      </c>
-      <c r="S24">
+        <v>1.9277217218572951E-2</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="14"/>
-        <v>1.9164859760788973E-2</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="15"/>
-        <v>1.8535357067916345E-2</v>
+        <v>1.8893478702512366E-2</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F25" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0559930927067116</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="5"/>
-        <v>2.5547317619080925</v>
-      </c>
-      <c r="G25" t="str">
+        <v>Stuttgart</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="6"/>
-        <v>Chelsea</v>
-      </c>
-      <c r="H25" t="str">
+        <v>PSV Eindhoven</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="7"/>
-        <v>Fulham</v>
-      </c>
-      <c r="I25" t="str">
+        <v>Lecce</v>
+      </c>
+      <c r="J25" s="11">
         <f t="shared" si="8"/>
-        <v>Sporting CP</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="9"/>
-        <v>5.6771816931290943E-2</v>
+        <v>5.72221846007991E-2</v>
       </c>
       <c r="K25" t="s">
         <v>13</v>
@@ -1669,50 +1681,50 @@
         <v>6</v>
       </c>
       <c r="O25">
+        <f t="shared" si="9"/>
+        <v>0.86</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="10"/>
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="P25">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="11"/>
-        <v>0.82</v>
-      </c>
-      <c r="Q25">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="12"/>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="R25">
+        <v>1.9412654341888453E-2</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="13"/>
-        <v>1.9188174675339811E-2</v>
-      </c>
-      <c r="S25">
+        <v>1.89386244102842E-2</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="14"/>
-        <v>1.9118229931687297E-2</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="15"/>
-        <v>1.8465412324263832E-2</v>
+        <v>1.8870905848626451E-2</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F26" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2992903094738271</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="5"/>
-        <v>1.6262152899209621</v>
-      </c>
-      <c r="G26" t="str">
+        <v>Manchester City</v>
+      </c>
+      <c r="H26" t="str">
         <f t="shared" si="6"/>
-        <v>Excelsior</v>
-      </c>
-      <c r="H26" t="str">
+        <v>CF America</v>
+      </c>
+      <c r="I26" t="str">
         <f t="shared" si="7"/>
-        <v>Liverpool</v>
-      </c>
-      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J26" s="11">
-        <f t="shared" si="9"/>
-        <v>3.6138117553799157E-2</v>
+        <v>3.6161711925238718E-2</v>
       </c>
       <c r="K26" t="s">
         <v>14</v>
@@ -1724,50 +1736,50 @@
         <v>9</v>
       </c>
       <c r="O26">
+        <f t="shared" si="9"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="10"/>
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="P26">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="11"/>
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R26">
+        <v>1.8396875917022194E-2</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="13"/>
-        <v>1.8208948264204609E-2</v>
-      </c>
-      <c r="S26">
+        <v>1.7764836008216527E-2</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="14"/>
-        <v>1.7929169289594551E-2</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F27" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2871246698720127</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="5"/>
-        <v>1.6031335245156324</v>
-      </c>
-      <c r="G27" t="str">
+        <v>A. San Luis</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="6"/>
-        <v>Monchengladbach</v>
-      </c>
-      <c r="H27" t="str">
+        <v>Club Leon</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="7"/>
-        <v>Tottenham</v>
-      </c>
-      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J27" s="11">
-        <f t="shared" si="9"/>
-        <v>3.5625189433680718E-2</v>
+        <v>3.5823119116949978E-2</v>
       </c>
       <c r="K27" t="s">
         <v>15</v>
@@ -1779,50 +1791,50 @@
         <v>10</v>
       </c>
       <c r="O27">
+        <f t="shared" si="9"/>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="10"/>
-        <v>0.78</v>
-      </c>
-      <c r="P27">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="11"/>
-        <v>0.748</v>
-      </c>
-      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
+        <v>1.823886593982078E-2</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="13"/>
-        <v>1.8185633349653771E-2</v>
-      </c>
-      <c r="S27">
+        <v>1.7584253177129194E-2</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="14"/>
-        <v>1.743955608402695E-2</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F28" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0868127130313097</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="5"/>
-        <v>2.6229278869692938</v>
-      </c>
-      <c r="G28" t="str">
+        <v>Guadalajara</v>
+      </c>
+      <c r="H28" t="str">
         <f t="shared" si="6"/>
-        <v>Casa Pia</v>
-      </c>
-      <c r="H28" t="str">
+        <v>Stuttgart</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" si="7"/>
-        <v>Chelsea</v>
-      </c>
-      <c r="I28" t="str">
+        <v>PSV Eindhoven</v>
+      </c>
+      <c r="J28" s="11">
         <f t="shared" si="8"/>
-        <v>Fulham</v>
-      </c>
-      <c r="J28" s="11">
-        <f t="shared" si="9"/>
-        <v>5.8287286377095418E-2</v>
+        <v>5.8079953048463945E-2</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -1837,50 +1849,50 @@
         <v>4</v>
       </c>
       <c r="O28">
+        <f t="shared" si="9"/>
+        <v>0.874</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="10"/>
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="P28">
+        <v>0.86</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="11"/>
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="Q28">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="12"/>
-        <v>0.82</v>
-      </c>
-      <c r="R28">
+        <v>1.9728674296291288E-2</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="13"/>
-        <v>1.998088177006831E-2</v>
-      </c>
-      <c r="S28">
+        <v>1.9412654341888453E-2</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="14"/>
-        <v>1.9188174675339811E-2</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="15"/>
-        <v>1.9118229931687297E-2</v>
+        <v>1.89386244102842E-2</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F29" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0495047515857436</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="5"/>
-        <v>2.5274533118836118</v>
-      </c>
-      <c r="G29" t="str">
+        <v>Bayern Munich</v>
+      </c>
+      <c r="H29" t="str">
         <f t="shared" si="6"/>
-        <v>RB Leipzig</v>
-      </c>
-      <c r="H29" t="str">
+        <v>Inter Milan</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="7"/>
-        <v>Napoli</v>
-      </c>
-      <c r="I29" t="str">
+        <v>Lecce</v>
+      </c>
+      <c r="J29" s="11">
         <f t="shared" si="8"/>
-        <v>Sporting CP</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" si="9"/>
-        <v>5.6165629152969153E-2</v>
+        <v>5.7041601769711764E-2</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -1895,51 +1907,51 @@
         <v>6</v>
       </c>
       <c r="O29">
+        <f t="shared" si="9"/>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="10"/>
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="P29">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="11"/>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="Q29">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="12"/>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="R29">
+        <v>1.9277217218572951E-2</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="13"/>
-        <v>1.9164859760788973E-2</v>
-      </c>
-      <c r="S29">
+        <v>1.8893478702512366E-2</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="14"/>
-        <v>1.8535357067916345E-2</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="15"/>
-        <v>1.8465412324263832E-2</v>
+        <v>1.8870905848626451E-2</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="F30" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2928019683528593</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="5"/>
-        <v>1.6041826956704202</v>
-      </c>
-      <c r="G30" t="str">
+        <v>Manchester City</v>
+      </c>
+      <c r="H30" t="str">
         <f t="shared" si="6"/>
-        <v>Excelsior</v>
-      </c>
-      <c r="H30" t="str">
+        <v>Club Leon</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="7"/>
-        <v>Tottenham</v>
-      </c>
-      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J30" s="11">
-        <f t="shared" si="9"/>
-        <v>3.5648504348231559E-2</v>
+        <v>3.5981129094151389E-2</v>
       </c>
       <c r="K30" t="s">
         <v>18</v>
@@ -1951,50 +1963,50 @@
         <v>10</v>
       </c>
       <c r="O30">
+        <f t="shared" si="9"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="10"/>
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="P30">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="11"/>
-        <v>0.748</v>
-      </c>
-      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R30">
+        <v>1.8396875917022194E-2</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="13"/>
-        <v>1.8208948264204609E-2</v>
-      </c>
-      <c r="S30">
+        <v>1.7584253177129194E-2</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="14"/>
-        <v>1.743955608402695E-2</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F31" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2936130109929804</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="5"/>
-        <v>1.6251661187661746</v>
-      </c>
-      <c r="G31" t="str">
+        <v>A. San Luis</v>
+      </c>
+      <c r="H31" t="str">
         <f t="shared" si="6"/>
-        <v>Monchengladbach</v>
-      </c>
-      <c r="H31" t="str">
+        <v>CF America</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="7"/>
-        <v>Liverpool</v>
-      </c>
-      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J31" s="11">
-        <f t="shared" si="9"/>
-        <v>3.6114802639248322E-2</v>
+        <v>3.6003701948037307E-2</v>
       </c>
       <c r="K31" t="s">
         <v>19</v>
@@ -2006,50 +2018,50 @@
         <v>9</v>
       </c>
       <c r="O31">
+        <f t="shared" si="9"/>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="10"/>
-        <v>0.78</v>
-      </c>
-      <c r="P31">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="11"/>
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R31">
+        <v>1.823886593982078E-2</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="13"/>
-        <v>1.8185633349653771E-2</v>
-      </c>
-      <c r="S31">
+        <v>1.7764836008216527E-2</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="14"/>
-        <v>1.7929169289594551E-2</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F32" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0681587323085266</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="5"/>
-        <v>2.5935510946352376</v>
-      </c>
-      <c r="G32" t="str">
+        <v>Guadalajara</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" si="6"/>
-        <v>Casa Pia</v>
-      </c>
-      <c r="H32" t="str">
+        <v>PSV Eindhoven</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="7"/>
-        <v>Fulham</v>
-      </c>
-      <c r="I32" t="str">
+        <v>Inter Milan</v>
+      </c>
+      <c r="J32" s="11">
         <f t="shared" si="8"/>
-        <v>Napoli</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" si="9"/>
-        <v>5.7634468769671945E-2</v>
+        <v>5.7560777409087854E-2</v>
       </c>
       <c r="K32" t="s">
         <v>20</v>
@@ -2064,50 +2076,50 @@
         <v>5</v>
       </c>
       <c r="O32">
+        <f t="shared" si="9"/>
+        <v>0.874</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="10"/>
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="P32">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="11"/>
-        <v>0.82</v>
-      </c>
-      <c r="Q32">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="12"/>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="R32">
+        <v>1.9728674296291288E-2</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="13"/>
-        <v>1.998088177006831E-2</v>
-      </c>
-      <c r="S32">
+        <v>1.89386244102842E-2</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="14"/>
-        <v>1.9118229931687297E-2</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="15"/>
-        <v>1.8535357067916345E-2</v>
+        <v>1.8893478702512366E-2</v>
       </c>
     </row>
     <row r="33" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F33" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0681587323085266</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="5"/>
-        <v>2.5568301042176675</v>
-      </c>
-      <c r="G33" t="str">
+        <v>Stuttgart</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="6"/>
-        <v>Chelsea</v>
-      </c>
-      <c r="H33" t="str">
+        <v>Bayern Munich</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="7"/>
-        <v>RB Leipzig</v>
-      </c>
-      <c r="I33" t="str">
+        <v>Lecce</v>
+      </c>
+      <c r="J33" s="11">
         <f t="shared" si="8"/>
-        <v>Sporting CP</v>
-      </c>
-      <c r="J33" s="11">
-        <f t="shared" si="9"/>
-        <v>5.6818446760392612E-2</v>
+        <v>5.7560777409087854E-2</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -2122,50 +2134,50 @@
         <v>6</v>
       </c>
       <c r="O33">
+        <f t="shared" si="9"/>
+        <v>0.86</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="10"/>
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="P33">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="11"/>
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="Q33">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="12"/>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="R33">
+        <v>1.9412654341888453E-2</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="13"/>
-        <v>1.9188174675339811E-2</v>
-      </c>
-      <c r="S33">
+        <v>1.9277217218572951E-2</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="14"/>
-        <v>1.9164859760788973E-2</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="15"/>
-        <v>1.8465412324263832E-2</v>
+        <v>1.8870905848626451E-2</v>
       </c>
     </row>
     <row r="34" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F34" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2595492201078986</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="5"/>
-        <v>1.6031335245156324</v>
-      </c>
-      <c r="G34" t="str">
+        <v>Manchester City</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="6"/>
-        <v>Excelsior</v>
-      </c>
-      <c r="H34" t="str">
+        <v>Leverkusen</v>
+      </c>
+      <c r="I34" t="str">
         <f t="shared" si="7"/>
-        <v>FSV Mainz</v>
-      </c>
-      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J34" s="11">
-        <f t="shared" si="9"/>
-        <v>3.5625189433680718E-2</v>
+        <v>3.5055642084828795E-2</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -2177,50 +2189,50 @@
         <v>11</v>
       </c>
       <c r="O34">
+        <f t="shared" si="9"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="10"/>
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="P34">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="11"/>
-        <v>0.747</v>
-      </c>
-      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R34">
+        <v>1.8396875917022194E-2</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="13"/>
-        <v>1.8208948264204609E-2</v>
-      </c>
-      <c r="S34">
+        <v>1.6658766167806604E-2</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="14"/>
-        <v>1.7416241169476113E-2</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F35" s="13">
+        <f t="shared" si="4"/>
+        <v>1.25224983634681</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="5"/>
-        <v>1.5989368398964814</v>
-      </c>
-      <c r="G35" t="str">
+        <v>A. San Luis</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="6"/>
-        <v>Monchengladbach</v>
-      </c>
-      <c r="H35" t="str">
+        <v>Dortmund</v>
+      </c>
+      <c r="I35" t="str">
         <f t="shared" si="7"/>
-        <v>Rennes</v>
-      </c>
-      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J35" s="11">
-        <f t="shared" si="9"/>
-        <v>3.5531929775477367E-2</v>
+        <v>3.4852486399855553E-2</v>
       </c>
       <c r="K35" t="s">
         <v>23</v>
@@ -2232,50 +2244,50 @@
         <v>12</v>
       </c>
       <c r="O35">
+        <f t="shared" si="9"/>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="10"/>
-        <v>0.78</v>
-      </c>
-      <c r="P35">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="11"/>
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R35">
+        <v>1.823886593982078E-2</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="13"/>
-        <v>1.8185633349653771E-2</v>
-      </c>
-      <c r="S35">
+        <v>1.661362046003477E-2</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="14"/>
-        <v>1.7346296425823596E-2</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.63829055777521981</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="5"/>
-        <v>0.80681261803175486</v>
-      </c>
-      <c r="G36" t="str">
+        <v>CF America</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="6"/>
-        <v>Liverpool</v>
-      </c>
-      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J36" s="11">
-        <f t="shared" si="9"/>
-        <v>1.7929169289594551E-2</v>
+        <v>1.7764836008216527E-2</v>
       </c>
       <c r="K36" t="s">
         <v>24</v>
@@ -2284,50 +2296,50 @@
         <v>9</v>
       </c>
       <c r="O36">
+        <f t="shared" si="9"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="10"/>
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R36">
+        <v>1.7764836008216527E-2</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="13"/>
-        <v>1.7929169289594551E-2</v>
-      </c>
-      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F37" s="13">
+        <f t="shared" si="4"/>
+        <v>0.63180221665425196</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="5"/>
-        <v>0.78478002378121281</v>
-      </c>
-      <c r="G37" t="str">
+        <v>Club Leon</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="6"/>
-        <v>Tottenham</v>
-      </c>
-      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J37" s="11">
-        <f t="shared" si="9"/>
-        <v>1.743955608402695E-2</v>
+        <v>1.7584253177129194E-2</v>
       </c>
       <c r="K37" t="s">
         <v>25</v>
@@ -2336,50 +2348,50 @@
         <v>10</v>
       </c>
       <c r="O37">
+        <f t="shared" si="9"/>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="10"/>
-        <v>0.748</v>
-      </c>
-      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R37">
+        <v>1.7584253177129194E-2</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="13"/>
-        <v>1.743955608402695E-2</v>
-      </c>
-      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F38" s="13">
+        <f t="shared" si="4"/>
+        <v>2.065725604388164</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="5"/>
-        <v>2.5641743023011818</v>
-      </c>
-      <c r="G38" t="str">
+        <v>Guadalajara</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="6"/>
-        <v>Casa Pia</v>
-      </c>
-      <c r="H38" t="str">
+        <v>Inter Milan</v>
+      </c>
+      <c r="I38" t="str">
         <f t="shared" si="7"/>
-        <v>Napoli</v>
-      </c>
-      <c r="I38" t="str">
+        <v>Lecce</v>
+      </c>
+      <c r="J38" s="11">
         <f t="shared" si="8"/>
-        <v>Sporting CP</v>
-      </c>
-      <c r="J38" s="11">
-        <f t="shared" si="9"/>
-        <v>5.6981651162248487E-2</v>
+        <v>5.7493058847430112E-2</v>
       </c>
       <c r="K38" t="s">
         <v>26</v>
@@ -2394,50 +2406,50 @@
         <v>6</v>
       </c>
       <c r="O38">
+        <f t="shared" si="9"/>
+        <v>0.874</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="10"/>
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="P38">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="11"/>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="Q38">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="12"/>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="R38">
+        <v>1.9728674296291288E-2</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="13"/>
-        <v>1.998088177006831E-2</v>
-      </c>
-      <c r="S38">
+        <v>1.8893478702512366E-2</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="14"/>
-        <v>1.8535357067916345E-2</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="15"/>
-        <v>1.8465412324263832E-2</v>
+        <v>1.8870905848626451E-2</v>
       </c>
     </row>
     <row r="39" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F39" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0705918602288893</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="5"/>
-        <v>2.5862068965517233</v>
-      </c>
-      <c r="G39" t="str">
+        <v>Stuttgart</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="6"/>
-        <v>Chelsea</v>
-      </c>
-      <c r="H39" t="str">
+        <v>Bayern Munich</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="7"/>
-        <v>RB Leipzig</v>
-      </c>
-      <c r="I39" t="str">
+        <v>PSV Eindhoven</v>
+      </c>
+      <c r="J39" s="11">
         <f t="shared" si="8"/>
-        <v>Fulham</v>
-      </c>
-      <c r="J39" s="11">
-        <f t="shared" si="9"/>
-        <v>5.7471264367816077E-2</v>
+        <v>5.7628495970745597E-2</v>
       </c>
       <c r="K39" t="s">
         <v>27</v>
@@ -2452,50 +2464,50 @@
         <v>4</v>
       </c>
       <c r="O39">
+        <f t="shared" si="9"/>
+        <v>0.86</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="10"/>
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="P39">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="11"/>
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="Q39">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="12"/>
-        <v>0.82</v>
-      </c>
-      <c r="R39">
+        <v>1.9412654341888453E-2</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="13"/>
-        <v>1.9188174675339811E-2</v>
-      </c>
-      <c r="S39">
+        <v>1.9277217218572951E-2</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="14"/>
-        <v>1.9164859760788973E-2</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="15"/>
-        <v>1.9118229931687297E-2</v>
+        <v>1.89386244102842E-2</v>
       </c>
     </row>
     <row r="40" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F40" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2579271348276566</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="5"/>
-        <v>1.5999860110512691</v>
-      </c>
-      <c r="G40" t="str">
+        <v>Manchester City</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="6"/>
-        <v>Excelsior</v>
-      </c>
-      <c r="H40" t="str">
+        <v>Dortmund</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="7"/>
-        <v>Rennes</v>
-      </c>
-      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J40" s="11">
-        <f t="shared" si="9"/>
-        <v>3.5555244690028201E-2</v>
+        <v>3.5010496377056964E-2</v>
       </c>
       <c r="K40" t="s">
         <v>28</v>
@@ -2507,50 +2519,50 @@
         <v>12</v>
       </c>
       <c r="O40">
+        <f t="shared" si="9"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="10"/>
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="P40">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="11"/>
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R40">
+        <v>1.8396875917022194E-2</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="13"/>
-        <v>1.8208948264204609E-2</v>
-      </c>
-      <c r="S40">
+        <v>1.661362046003477E-2</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="14"/>
-        <v>1.7346296425823596E-2</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F41" s="13">
+        <f t="shared" si="4"/>
+        <v>1.253871921627052</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="5"/>
-        <v>1.6020843533608446</v>
-      </c>
-      <c r="G41" t="str">
+        <v>A. San Luis</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="6"/>
-        <v>Monchengladbach</v>
-      </c>
-      <c r="H41" t="str">
+        <v>Leverkusen</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="7"/>
-        <v>FSV Mainz</v>
-      </c>
-      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J41" s="11">
-        <f t="shared" si="9"/>
-        <v>3.5601874519129884E-2</v>
+        <v>3.4897632107627384E-2</v>
       </c>
       <c r="K41" t="s">
         <v>29</v>
@@ -2562,132 +2574,133 @@
         <v>11</v>
       </c>
       <c r="O41">
+        <f t="shared" si="9"/>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="10"/>
-        <v>0.78</v>
-      </c>
-      <c r="P41">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="11"/>
-        <v>0.747</v>
-      </c>
-      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R41">
+        <v>1.823886593982078E-2</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="13"/>
-        <v>1.8185633349653771E-2</v>
-      </c>
-      <c r="S41">
+        <v>1.6658766167806604E-2</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="14"/>
-        <v>1.7416241169476113E-2</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE0C51-CCF0-47CF-B9E0-EA160F5D45BC}">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:J30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.874</v>
+      </c>
+      <c r="J2">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J4">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="10">
-        <v>0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2696,118 +2709,109 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I6" s="10">
-        <v>0.82199999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="J6">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I8" s="10">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J8">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" s="10">
-        <v>0.79500000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J10">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2816,260 +2820,257 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I12" s="10">
-        <v>0.79200000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="J12">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I14" s="10">
-        <v>0.78100000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J14">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I16" s="10">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="J16">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I18" s="10">
-        <v>0.76900000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="J18">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I20" s="10">
-        <v>0.748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="J20">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I22" s="10">
-        <v>0.747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="J22">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I24" s="10">
-        <v>0.74399999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="J24">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3078,16 +3079,16 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I26" s="10">
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -3098,18 +3099,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -3118,18 +3119,18 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I28" s="10">
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3138,18 +3139,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3158,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I30" s="10">
         <v>0.73799999999999999</v>
@@ -3169,5 +3170,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>